--- a/export_dataframe.xlsx
+++ b/export_dataframe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lion\Documents\GitHub\information-theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{18CB5B6A-DF10-4F79-B7AA-EEA360415F28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AC7DF5E-E9F6-48B3-965B-B50E84E8EE96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>entropy</t>
   </si>
@@ -46,52 +46,115 @@
     <t>Mutualinformation_PCC2</t>
   </si>
   <si>
+    <t>Mutualinformation_kendall1</t>
+  </si>
+  <si>
+    <t>Mutualinformation_kendall2</t>
+  </si>
+  <si>
+    <t>Mutualinformation_spearsman1</t>
+  </si>
+  <si>
+    <t>Mutualinformation_spearsman2</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>having_IP_Address</t>
   </si>
   <si>
+    <t>URL_Length</t>
+  </si>
+  <si>
     <t>Shortining_Service</t>
   </si>
   <si>
+    <t>having_At_Symbol</t>
+  </si>
+  <si>
     <t>double_slash_redirecting</t>
   </si>
   <si>
+    <t>Prefix_Suffix</t>
+  </si>
+  <si>
     <t>having_Sub_Domain</t>
   </si>
   <si>
+    <t>SSLfinal_State</t>
+  </si>
+  <si>
     <t>Domain_registeration_length</t>
   </si>
   <si>
+    <t>Favicon</t>
+  </si>
+  <si>
     <t>port</t>
   </si>
   <si>
+    <t>HTTPS_token</t>
+  </si>
+  <si>
     <t>Request_URL</t>
   </si>
   <si>
+    <t>URL_of_Anchor</t>
+  </si>
+  <si>
     <t>Links_in_tags</t>
   </si>
   <si>
+    <t>SFH</t>
+  </si>
+  <si>
     <t>Submitting_to_email</t>
   </si>
   <si>
+    <t>Abnormal_URL</t>
+  </si>
+  <si>
     <t>Redirect</t>
   </si>
   <si>
+    <t>on_mouseover</t>
+  </si>
+  <si>
     <t>RightClick</t>
   </si>
   <si>
+    <t>popUpWidnow</t>
+  </si>
+  <si>
     <t>Iframe</t>
   </si>
   <si>
+    <t>age_of_domain</t>
+  </si>
+  <si>
     <t>DNSRecord</t>
   </si>
   <si>
+    <t>web_traffic</t>
+  </si>
+  <si>
     <t>Page_Rank</t>
   </si>
   <si>
+    <t>Google_Index</t>
+  </si>
+  <si>
     <t>Links_pointing_to_page</t>
   </si>
   <si>
-    <t>Deleted Feature</t>
+    <t>Statistical_report</t>
+  </si>
+  <si>
+    <t>Deleted item</t>
   </si>
 </sst>
 </file>
@@ -234,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +480,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,14 +650,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -945,486 +1022,1328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A2" activeCellId="1" sqref="A1 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
+    <col min="2" max="13" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.86378921870643099</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.77069193451359796</v>
+      </c>
+      <c r="E2" s="2">
+        <v>17356.207738540099</v>
+      </c>
+      <c r="F2" s="2">
+        <v>19.7486364196129</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.5612742026039301</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2.5971931025440602</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2.58947056197053</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.83179760333877095</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.927756845662148</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.73794938915461505</v>
+      </c>
+      <c r="E3" s="3">
+        <v>16918.5930748508</v>
+      </c>
+      <c r="F3" s="3">
+        <v>22.028337731567301</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2.7020566816828602</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.61795058913592404</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.8384501862896898</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2.7254771823162698</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3.1533346648307301</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2.7172157604295499</v>
+      </c>
+      <c r="M3" s="3">
+        <v>3.1491648965147001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.83738284374386296</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.76578487391446204</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.74427485182525199</v>
+      </c>
+      <c r="E4" s="3">
+        <v>16826.032732699899</v>
+      </c>
+      <c r="F4" s="3">
+        <v>22.966296287339599</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.6767258206234801</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1.17873856136293</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3.3935685939834199</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2.7083514955279</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3.1767593333065398</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2.7001192835210901</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3.1939077776566198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.84450869888593005</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.55913507479454305</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.74745061509794397</v>
+      </c>
+      <c r="E5" s="3">
+        <v>16630.0862371316</v>
+      </c>
+      <c r="F5" s="3">
+        <v>21.3788060191246</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.7111251814907198</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.33862771247604001</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5.0196548138945802</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.7470229891306599</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.94151390182195</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2.7379054956387101</v>
+      </c>
+      <c r="M5" s="3">
+        <v>4.9219288334262901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.84278562840077598</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.60910411886399196</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.74608509594873196</v>
+      </c>
+      <c r="E6" s="3">
+        <v>16689.655030347702</v>
+      </c>
+      <c r="F6" s="3">
+        <v>19.9160992731851</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.7073309336916598</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.13143678701936401</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4.2937435205541998</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.7390301008818199</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3.6566256592695701</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2.7295985998530798</v>
+      </c>
+      <c r="M6" s="3">
+        <v>3.65435610023341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.84463705056044502</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.55541287623359603</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.74755360842739704</v>
+      </c>
+      <c r="E7" s="3">
+        <v>16625.220004238501</v>
+      </c>
+      <c r="F7" s="3">
+        <v>21.861284897554</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.6989209999587702</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.27948942541933602</v>
+      </c>
+      <c r="I7" s="3">
+        <v>4.0944456996993104</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2.7303564322685099</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4.2206570451426204</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2.72185645801162</v>
+      </c>
+      <c r="M7" s="3">
+        <v>4.20108681366799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.84433035995889605</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.56430690367851</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.74730781563912796</v>
+      </c>
+      <c r="E8" s="3">
+        <v>16636.741084218898</v>
+      </c>
+      <c r="F8" s="3">
+        <v>25.9227826472105</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2.7005830929519501</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2.0044490857330799</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4.5616250375174001</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2.7387428044321398</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3.7165628950730998</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2.7323661432137198</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3.76208053088033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.80929052220616904</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.5804621985076099</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.74250165360468301</v>
+      </c>
+      <c r="E9" s="3">
+        <v>17099.320860522399</v>
+      </c>
+      <c r="F9" s="3">
+        <v>26.9561774354015</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2.6798886060981602</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.46031038954118902</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3.92007883044199</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2.7427648989837401</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.6145264674981501</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2.7392322661705899</v>
+      </c>
+      <c r="M9" s="3">
+        <v>4.67071856199163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.81794938035561404</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.3293553121736901</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.73924737040410304</v>
+      </c>
+      <c r="E10" s="3">
+        <v>17050.796539380899</v>
+      </c>
+      <c r="F10" s="3">
+        <v>25.364850801314901</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2.61668180586208</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1.88954901116108</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3.9283000602871598</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2.6787556353511701</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3.87773938650919</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2.6757566604818299</v>
+      </c>
+      <c r="M10" s="3">
+        <v>4.0225522772731699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.83218344084303497</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.91656755803849399</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.73822195924947398</v>
+      </c>
+      <c r="E11" s="3">
+        <v>16913.250755785099</v>
+      </c>
+      <c r="F11" s="3">
+        <v>20.4006976867635</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2.6324518060588402</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-0.69561263369440396</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.61238704516282405</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2.6850186827986402</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.63991559383987495</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2.6780176462928802</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.60566173431430603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.83179760333877095</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.927756845662148</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.73794938915461505</v>
-      </c>
-      <c r="E2" s="1">
-        <v>16918.5930748508</v>
-      </c>
-      <c r="F2" s="1">
-        <v>23.673692264816601</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5992513897451501</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.61795058913592404</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3.8384501862896898</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.84450869888592905</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.55913507479454605</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.74745061509794397</v>
-      </c>
-      <c r="E3" s="1">
-        <v>16630.086237131702</v>
-      </c>
-      <c r="F3" s="1">
-        <v>21.9408974522478</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2.6975376770216899</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.33862771247604001</v>
-      </c>
-      <c r="I3" s="1">
-        <v>5.0196548138945802</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.84463705056044502</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.55541287623359903</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.74755360842739704</v>
-      </c>
-      <c r="E4" s="1">
-        <v>16625.220004238501</v>
-      </c>
-      <c r="F4" s="1">
-        <v>22.973072949583699</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.6058566176704598</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.27948942541933602</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4.0944456996993104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.80929052220616904</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.5804621985076099</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.74250165360468301</v>
-      </c>
-      <c r="E5" s="1">
-        <v>17099.320860522399</v>
-      </c>
-      <c r="F5" s="1">
-        <v>23.107590996488199</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2.6574077040995898</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.46031038954118902</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3.92007883044199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.83218344084303497</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.91656755803849699</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.73822195924947398</v>
-      </c>
-      <c r="E6" s="1">
-        <v>16913.2507557852</v>
-      </c>
-      <c r="F6" s="1">
-        <v>19.893606146922501</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2.5601225021617702</v>
-      </c>
-      <c r="H6" s="1">
-        <v>-0.69561263369440396</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.61238704516282305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="B12" s="3">
+        <v>0.83991315981196801</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.69240570793943901</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.74387205186973304</v>
+      </c>
+      <c r="E12" s="3">
+        <v>16769.846310053101</v>
+      </c>
+      <c r="F12" s="3">
+        <v>18.635413283254</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2.8524669318346798</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5.8860960398741002E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7.9520901195665896</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2.9140182671657602</v>
+      </c>
+      <c r="K12" s="3">
+        <v>8.0080717781340702</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2.9030383795435402</v>
+      </c>
+      <c r="M12" s="3">
+        <v>7.9979054155641496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
         <v>0.84401993174146595</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C13" s="3">
         <v>0.57330932198397999</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D13" s="3">
         <v>0.74706008298775906</v>
       </c>
-      <c r="E7" s="1">
-        <v>16648.038545346299</v>
-      </c>
-      <c r="F7" s="1">
-        <v>20.0059294687895</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2.7900457065509001</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="E13" s="3">
+        <v>16648.0385453464</v>
+      </c>
+      <c r="F13" s="3">
+        <v>19.589527281796599</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2.9586696827908701</v>
+      </c>
+      <c r="H13" s="3">
         <v>5.7922568222736302E-2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I13" s="3">
         <v>9.4819586315517199</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.83017947790749003</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.97468248316927797</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="J13" s="3">
+        <v>3.0211317689785502</v>
+      </c>
+      <c r="K13" s="3">
+        <v>9.3871837818249002</v>
+      </c>
+      <c r="L13" s="3">
+        <v>3.0099252377175101</v>
+      </c>
+      <c r="M13" s="3">
+        <v>9.3832810605164791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.84171462163232402</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.64016331514910196</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.74525129041815996</v>
+      </c>
+      <c r="E14" s="3">
+        <v>16721.994577004501</v>
+      </c>
+      <c r="F14" s="3">
+        <v>20.214182737938</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2.7876138084064399</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.366442866520927</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4.7415939097016704</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2.8434474456372998</v>
+      </c>
+      <c r="K14" s="3">
+        <v>4.7505410070145304</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2.8342587787115701</v>
+      </c>
+      <c r="M14" s="3">
+        <v>4.7366598505358599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.83017947790749103</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.97468248316927397</v>
+      </c>
+      <c r="D15" s="3">
         <v>0.73681456650277699</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E15" s="3">
         <v>16939.6618305027</v>
       </c>
-      <c r="F8" s="1">
-        <v>23.105252951735</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2.5934142254466099</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="F15" s="3">
+        <v>22.007570786335499</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2.7103613699033899</v>
+      </c>
+      <c r="H15" s="3">
         <v>0.39079242848023699</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I15" s="3">
         <v>3.9480242614911099</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="J15" s="3">
+        <v>2.7606868617439799</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3.92300373654381</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2.7563595033649202</v>
+      </c>
+      <c r="M15" s="3">
+        <v>3.9602811640483799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.81178309379457403</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.5081776224438399</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.74603201251048201</v>
+      </c>
+      <c r="E16" s="3">
+        <v>17087.008677396501</v>
+      </c>
+      <c r="F16" s="3">
+        <v>23.882763470910401</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2.6776379386985298</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.76474819528672699</v>
+      </c>
+      <c r="I16" s="3">
+        <v>5.6977505681958203</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2.7187903298739098</v>
+      </c>
+      <c r="K16" s="3">
+        <v>5.5016893003166096</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2.71730213438854</v>
+      </c>
+      <c r="M16" s="3">
+        <v>5.6879319701893198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3">
         <v>0.81023887071600498</v>
       </c>
-      <c r="C9" s="1">
-        <v>1.5529600917223501</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C17" s="3">
+        <v>1.5529600917223401</v>
+      </c>
+      <c r="D17" s="3">
         <v>0.74434805007783</v>
       </c>
-      <c r="E9" s="1">
-        <v>17094.771528966099</v>
-      </c>
-      <c r="F9" s="1">
-        <v>23.1508267838806</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2.5596273583570399</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="E17" s="3">
+        <v>17094.771528965899</v>
+      </c>
+      <c r="F17" s="3">
+        <v>26.576881172834799</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2.6536121401650901</v>
+      </c>
+      <c r="H17" s="3">
         <v>0.44686261917766801</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I17" s="3">
         <v>0.81765287272029796</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="J17" s="3">
+        <v>2.6719581908650398</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.54574866373860598</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2.6674728127703502</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.54562142447733297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.82947726401692501</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.99504668599568902</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.74451458753920496</v>
+      </c>
+      <c r="E18" s="3">
+        <v>16948.186682127602</v>
+      </c>
+      <c r="F18" s="3">
+        <v>25.9456640593177</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2.80105879843136</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.60409240336543</v>
+      </c>
+      <c r="I18" s="3">
+        <v>7.3442032943044797</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2.8014376525735099</v>
+      </c>
+      <c r="K18" s="3">
+        <v>6.1485771471096697</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2.7940328529423399</v>
+      </c>
+      <c r="M18" s="3">
+        <v>6.1938332117199799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3">
         <v>0.84017463460023101</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.68482293907980096</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C19" s="3">
+        <v>0.68482293907979397</v>
+      </c>
+      <c r="D19" s="3">
         <v>0.74407053629454201</v>
       </c>
-      <c r="E10" s="1">
-        <v>16763.353765883501</v>
-      </c>
-      <c r="F10" s="1">
-        <v>21.2749134958935</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2.78723465593814</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="E19" s="3">
+        <v>16763.353765883301</v>
+      </c>
+      <c r="F19" s="3">
+        <v>22.4549538498981</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2.8541188636188601</v>
+      </c>
+      <c r="H19" s="3">
         <v>0.18790831187446</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I19" s="3">
         <v>7.3279514359047004</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.84596659240711003</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.51685616268030099</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="J19" s="3">
+        <v>2.88335478555793</v>
+      </c>
+      <c r="K19" s="3">
+        <v>7.2364263285789301</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2.87429873123294</v>
+      </c>
+      <c r="M19" s="3">
+        <v>7.2352601392867104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.84298993474401895</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.60317923490994396</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.74624540839576803</v>
+      </c>
+      <c r="E20" s="3">
+        <v>16683.107644070598</v>
+      </c>
+      <c r="F20" s="3">
+        <v>21.561758651609701</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2.6776832949004099</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.34997349821687701</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3.6577896332886302</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2.7284144266008399</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3.7125376305260001</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2.71932450508826</v>
+      </c>
+      <c r="M20" s="3">
+        <v>3.69464166019673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.84596659240711103</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.516856162680294</v>
+      </c>
+      <c r="D21" s="3">
         <v>0.75966185185024404</v>
       </c>
-      <c r="E11" s="1">
-        <v>16570.689388726001</v>
-      </c>
-      <c r="F11" s="1">
-        <v>24.6354049496302</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2.6135025683382</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="E21" s="3">
+        <v>16570.689388725801</v>
+      </c>
+      <c r="F21" s="3">
+        <v>22.5192260771355</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2.6219750529540198</v>
+      </c>
+      <c r="H21" s="3">
         <v>1.24324693822189</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I21" s="3">
         <v>0.94290241067043301</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.85495684057060695</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.25613896593889102</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="J21" s="3">
+        <v>2.6708010739280699</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.78245524442773196</v>
+      </c>
+      <c r="L21" s="3">
+        <v>2.6625049264740199</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.79047524023231397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.84563966188733797</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.52633714775368601</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.74836468380406795</v>
+      </c>
+      <c r="E22" s="3">
+        <v>16584.8390412466</v>
+      </c>
+      <c r="F22" s="3">
+        <v>21.056078215897401</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2.73694543088209</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.107356986708257</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6.5909193505268897</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2.8002883825430498</v>
+      </c>
+      <c r="K22" s="3">
+        <v>6.7261443144089297</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2.7912536855530798</v>
+      </c>
+      <c r="M22" s="3">
+        <v>6.7228074676132197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.85495684057060795</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.25613896593888003</v>
+      </c>
+      <c r="D23" s="3">
         <v>0.75669223613045</v>
       </c>
-      <c r="E12" s="1">
-        <v>15771.130674955701</v>
-      </c>
-      <c r="F12" s="1">
-        <v>21.0325989165683</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2.7177828176222598</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="E23" s="3">
+        <v>15771.130674955501</v>
+      </c>
+      <c r="F23" s="3">
+        <v>19.326356185686102</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2.83400439525535</v>
+      </c>
+      <c r="H23" s="3">
         <v>2.1976346553790101E-2</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I23" s="3">
         <v>5.4475644370348997</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="J23" s="3">
+        <v>2.90874096511061</v>
+      </c>
+      <c r="K23" s="3">
+        <v>5.7313388177705997</v>
+      </c>
+      <c r="L23" s="3">
+        <v>2.8986359582944501</v>
+      </c>
+      <c r="M23" s="3">
+        <v>5.7291779044941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.83936381329096099</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.70833675704863797</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.74345683984100897</v>
+      </c>
+      <c r="E24" s="3">
+        <v>16783.034038375601</v>
+      </c>
+      <c r="F24" s="3">
+        <v>19.3347859607244</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2.9101052324229402</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.10761765899890301</v>
+      </c>
+      <c r="I24" s="3">
+        <v>7.6164640344593302</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2.9757813651023599</v>
+      </c>
+      <c r="K24" s="3">
+        <v>7.6328772796724698</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2.9649617936149202</v>
+      </c>
+      <c r="M24" s="3">
+        <v>7.6224173093660497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3">
         <v>0.848561738301429</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.44159693174505998</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C25" s="3">
+        <v>0.44159693174505599</v>
+      </c>
+      <c r="D25" s="3">
         <v>0.750802845942662</v>
       </c>
-      <c r="E13" s="1">
-        <v>16436.8172926066</v>
-      </c>
-      <c r="F13" s="1">
-        <v>20.6487188584445</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2.8436837022798498</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="E25" s="3">
+        <v>16436.817292606502</v>
+      </c>
+      <c r="F25" s="3">
+        <v>19.358336163105399</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2.9218417689051899</v>
+      </c>
+      <c r="H25" s="3">
         <v>3.0874771516164499E-2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I25" s="3">
         <v>8.3237038974954292</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.83293294653686101</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.89483189291751897</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="J25" s="3">
+        <v>2.9758104729757</v>
+      </c>
+      <c r="K25" s="3">
+        <v>8.1244940027591106</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2.96571139885455</v>
+      </c>
+      <c r="M25" s="3">
+        <v>8.1181770271800104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.82939980231393495</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.99729307538238698</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.73627233927725599</v>
+      </c>
+      <c r="E26" s="3">
+        <v>16949.1057441296</v>
+      </c>
+      <c r="F26" s="3">
+        <v>19.585657986693299</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2.7673508914862501</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.124264667788986</v>
+      </c>
+      <c r="I26" s="3">
+        <v>4.9518259159901001</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2.81784136648578</v>
+      </c>
+      <c r="K26" s="3">
+        <v>4.8921594355795399</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2.8097913124902201</v>
+      </c>
+      <c r="M26" s="3">
+        <v>4.9191270595580203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.83293294653686201</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.89483189291750798</v>
+      </c>
+      <c r="D27" s="3">
         <v>0.73875370809882601</v>
       </c>
-      <c r="E14" s="1">
-        <v>16902.491232441898</v>
-      </c>
-      <c r="F14" s="1">
-        <v>21.1407198840507</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2.64505671172651</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="E27" s="3">
+        <v>16902.4912324416</v>
+      </c>
+      <c r="F27" s="3">
+        <v>21.7035224265761</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2.6418989353630402</v>
+      </c>
+      <c r="H27" s="3">
         <v>0.257650404453304</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I27" s="3">
         <v>2.56793869794592</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="J27" s="3">
+        <v>2.7021497050577099</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2.5535604187607199</v>
+      </c>
+      <c r="L27" s="3">
+        <v>2.69531127024554</v>
+      </c>
+      <c r="M27" s="3">
+        <v>2.56161384141528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.81308997197774702</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1.47027815513185</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.74214940674962104</v>
+      </c>
+      <c r="E28" s="3">
+        <v>17080.069513549901</v>
+      </c>
+      <c r="F28" s="3">
+        <v>22.6865435515688</v>
+      </c>
+      <c r="G28" s="3">
+        <v>2.6480701882257001</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1.02949133606497</v>
+      </c>
+      <c r="I28" s="3">
+        <v>3.72323994391353</v>
+      </c>
+      <c r="J28" s="3">
+        <v>2.7084219326053498</v>
+      </c>
+      <c r="K28" s="3">
+        <v>4.2701814202665602</v>
+      </c>
+      <c r="L28" s="3">
+        <v>2.7020301308735899</v>
+      </c>
+      <c r="M28" s="3">
+        <v>4.3165683726108499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3">
         <v>0.83537671009028802</v>
       </c>
-      <c r="C15" s="1">
-        <v>0.82396274986815099</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C29" s="3">
+        <v>0.82396274986814699</v>
+      </c>
+      <c r="D29" s="3">
         <v>0.74050956828137504</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E29" s="3">
         <v>16863.467016869199</v>
       </c>
-      <c r="F15" s="1">
-        <v>21.159205864129</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2.6468096339524698</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="F29" s="3">
+        <v>21.399236093755398</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2.7093770269301598</v>
+      </c>
+      <c r="H29" s="3">
         <v>0.20577204999406301</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I29" s="3">
         <v>4.2205151412920596</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="J29" s="3">
+        <v>2.7533421726906302</v>
+      </c>
+      <c r="K29" s="3">
+        <v>3.5896450669826798</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2.7462829317992901</v>
+      </c>
+      <c r="M29" s="3">
+        <v>3.6065518588689902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.84371425040553005</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.58217408072613996</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.746817152181523</v>
+      </c>
+      <c r="E30" s="3">
+        <v>16658.821830370602</v>
+      </c>
+      <c r="F30" s="3">
+        <v>20.785068284943701</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2.6642884193650098</v>
+      </c>
+      <c r="H30" s="3">
+        <v>7.3070116615449598E-3</v>
+      </c>
+      <c r="I30" s="3">
+        <v>5.5243469233047904</v>
+      </c>
+      <c r="J30" s="3">
+        <v>2.7196384913172502</v>
+      </c>
+      <c r="K30" s="3">
+        <v>5.6705329884316198</v>
+      </c>
+      <c r="L30" s="3">
+        <v>2.71115104993889</v>
+      </c>
+      <c r="M30" s="3">
+        <v>5.6814335924558703</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="3">
         <v>0.82190422419929099</v>
       </c>
-      <c r="C16" s="1">
-        <v>1.2146648407070599</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C31" s="3">
+        <v>1.2146648407070499</v>
+      </c>
+      <c r="D31" s="3">
         <v>0.75103868894141301</v>
       </c>
-      <c r="E16" s="1">
-        <v>17021.959157043799</v>
-      </c>
-      <c r="F16" s="1">
-        <v>23.450040983358399</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2.53066543538355</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="E31" s="3">
+        <v>17021.959157043701</v>
+      </c>
+      <c r="F31" s="3">
+        <v>21.2321579732779</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2.5988122346873701</v>
+      </c>
+      <c r="H31" s="3">
         <v>0.53806848698985199</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I31" s="3">
         <v>-0.18738753269798999</v>
+      </c>
+      <c r="J31" s="3">
+        <v>2.6677971049406399</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.291139636034494</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2.65859688344894</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.252748733425603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.84362427324689904</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.58478341832644098</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.74674583384831805</v>
+      </c>
+      <c r="E32" s="3">
+        <v>16661.933606825001</v>
+      </c>
+      <c r="F32" s="3">
+        <v>21.418719952474301</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2.6769017797691101</v>
+      </c>
+      <c r="H32" s="3">
+        <v>9.0176693576257794E-2</v>
+      </c>
+      <c r="I32" s="3">
+        <v>6.1200755249113303</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2.7244308753054298</v>
+      </c>
+      <c r="K32" s="3">
+        <v>6.0357245963396498</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2.7153624337500202</v>
+      </c>
+      <c r="M32" s="3">
+        <v>6.0421679007076001</v>
       </c>
     </row>
   </sheetData>

--- a/export_dataframe.xlsx
+++ b/export_dataframe.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lion\Documents\GitHub\information-theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AC7DF5E-E9F6-48B3-965B-B50E84E8EE96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F41A93C-4B42-4757-B9CF-F6FC930A9EE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="export_dataframe" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +486,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,7 +662,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -666,6 +678,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1021,11 +1042,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="A1 A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1144,7 @@
       <c r="B3" s="3">
         <v>0.83179760333877095</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>0.927756845662148</v>
       </c>
       <c r="D3" s="3">
@@ -1132,28 +1153,28 @@
       <c r="E3" s="3">
         <v>16918.5930748508</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>22.028337731567301</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>2.7020566816828602</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <v>0.61795058913592404</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="6">
         <v>3.8384501862896898</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="7">
         <v>2.7254771823162698</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="6">
         <v>3.1533346648307301</v>
       </c>
       <c r="L3" s="3">
         <v>2.7172157604295499</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="6">
         <v>3.1491648965147001</v>
       </c>
     </row>
@@ -1173,28 +1194,28 @@
       <c r="E4" s="3">
         <v>16826.032732699899</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>22.966296287339599</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="8">
         <v>2.6767258206234801</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="6">
         <v>1.17873856136293</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="6">
         <v>3.3935685939834199</v>
       </c>
       <c r="J4" s="3">
         <v>2.7083514955279</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="6">
         <v>3.1767593333065398</v>
       </c>
       <c r="L4" s="3">
         <v>2.7001192835210901</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="6">
         <v>3.1939077776566198</v>
       </c>
     </row>
@@ -1214,28 +1235,28 @@
       <c r="E5" s="3">
         <v>16630.0862371316</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>21.3788060191246</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>2.7111251814907198</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>0.33862771247604001</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <v>5.0196548138945802</v>
       </c>
       <c r="J5" s="3">
         <v>2.7470229891306599</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>4.94151390182195</v>
       </c>
       <c r="L5" s="3">
         <v>2.7379054956387101</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="6">
         <v>4.9219288334262901</v>
       </c>
     </row>
@@ -1255,28 +1276,28 @@
       <c r="E6" s="3">
         <v>16689.655030347702</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>19.9160992731851</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>2.7073309336916598</v>
       </c>
       <c r="H6" s="3">
         <v>0.13143678701936401</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>4.2937435205541998</v>
       </c>
       <c r="J6" s="3">
         <v>2.7390301008818199</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>3.6566256592695701</v>
       </c>
       <c r="L6" s="3">
         <v>2.7295985998530798</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="6">
         <v>3.65435610023341</v>
       </c>
     </row>
@@ -1296,28 +1317,28 @@
       <c r="E7" s="3">
         <v>16625.220004238501</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>21.861284897554</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="8">
         <v>2.6989209999587702</v>
       </c>
       <c r="H7" s="3">
         <v>0.27948942541933602</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>4.0944456996993104</v>
       </c>
       <c r="J7" s="3">
         <v>2.7303564322685099</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>4.2206570451426204</v>
       </c>
       <c r="L7" s="3">
         <v>2.72185645801162</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="6">
         <v>4.20108681366799</v>
       </c>
     </row>
@@ -1337,28 +1358,28 @@
       <c r="E8" s="3">
         <v>16636.741084218898</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>25.9227826472105</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="6">
         <v>2.7005830929519501</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="6">
         <v>2.0044490857330799</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="6">
         <v>4.5616250375174001</v>
       </c>
       <c r="J8" s="3">
         <v>2.7387428044321398</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="6">
         <v>3.7165628950730998</v>
       </c>
       <c r="L8" s="3">
         <v>2.7323661432137198</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="6">
         <v>3.76208053088033</v>
       </c>
     </row>
@@ -1369,7 +1390,7 @@
       <c r="B9" s="3">
         <v>0.80929052220616904</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>1.5804621985076099</v>
       </c>
       <c r="D9" s="3">
@@ -1378,28 +1399,28 @@
       <c r="E9" s="3">
         <v>17099.320860522399</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>26.9561774354015</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="8">
         <v>2.6798886060981602</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>0.46031038954118902</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>3.92007883044199</v>
       </c>
       <c r="J9" s="3">
         <v>2.7427648989837401</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>4.6145264674981501</v>
       </c>
       <c r="L9" s="3">
         <v>2.7392322661705899</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="6">
         <v>4.67071856199163</v>
       </c>
     </row>
@@ -1410,7 +1431,7 @@
       <c r="B10" s="3">
         <v>0.81794938035561404</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>1.3293553121736901</v>
       </c>
       <c r="D10" s="3">
@@ -1419,28 +1440,28 @@
       <c r="E10" s="3">
         <v>17050.796539380899</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>25.364850801314901</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="8">
         <v>2.61668180586208</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>1.88954901116108</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>3.9283000602871598</v>
       </c>
       <c r="J10" s="3">
         <v>2.6787556353511701</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>3.87773938650919</v>
       </c>
       <c r="L10" s="3">
         <v>2.6757566604818299</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="6">
         <v>4.0225522772731699</v>
       </c>
     </row>
@@ -1451,7 +1472,7 @@
       <c r="B11" s="3">
         <v>0.83218344084303497</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>0.91656755803849399</v>
       </c>
       <c r="D11" s="3">
@@ -1460,10 +1481,10 @@
       <c r="E11" s="3">
         <v>16913.250755785099</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>20.4006976867635</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="8">
         <v>2.6324518060588402</v>
       </c>
       <c r="H11" s="3">
@@ -1504,25 +1525,25 @@
       <c r="F12" s="3">
         <v>18.635413283254</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="6">
         <v>2.8524669318346798</v>
       </c>
       <c r="H12" s="3">
         <v>5.8860960398741002E-2</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="6">
         <v>7.9520901195665896</v>
       </c>
       <c r="J12" s="3">
         <v>2.9140182671657602</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="6">
         <v>8.0080717781340702</v>
       </c>
       <c r="L12" s="3">
         <v>2.9030383795435402</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="6">
         <v>7.9979054155641496</v>
       </c>
     </row>
@@ -1545,25 +1566,25 @@
       <c r="F13" s="3">
         <v>19.589527281796599</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="6">
         <v>2.9586696827908701</v>
       </c>
       <c r="H13" s="3">
         <v>5.7922568222736302E-2</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="6">
         <v>9.4819586315517199</v>
       </c>
       <c r="J13" s="3">
         <v>3.0211317689785502</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="6">
         <v>9.3871837818249002</v>
       </c>
       <c r="L13" s="3">
         <v>3.0099252377175101</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="6">
         <v>9.3832810605164791</v>
       </c>
     </row>
@@ -1583,28 +1604,28 @@
       <c r="E14" s="3">
         <v>16721.994577004501</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="6">
         <v>20.214182737938</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="6">
         <v>2.7876138084064399</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="6">
         <v>0.366442866520927</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="6">
         <v>4.7415939097016704</v>
       </c>
       <c r="J14" s="3">
         <v>2.8434474456372998</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="6">
         <v>4.7505410070145304</v>
       </c>
       <c r="L14" s="3">
         <v>2.8342587787115701</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="6">
         <v>4.7366598505358599</v>
       </c>
     </row>
@@ -1615,7 +1636,7 @@
       <c r="B15" s="3">
         <v>0.83017947790749103</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>0.97468248316927397</v>
       </c>
       <c r="D15" s="3">
@@ -1624,28 +1645,28 @@
       <c r="E15" s="3">
         <v>16939.6618305027</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="6">
         <v>22.007570786335499</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="6">
         <v>2.7103613699033899</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="6">
         <v>0.39079242848023699</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="6">
         <v>3.9480242614911099</v>
       </c>
       <c r="J15" s="3">
         <v>2.7606868617439799</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="6">
         <v>3.92300373654381</v>
       </c>
       <c r="L15" s="3">
         <v>2.7563595033649202</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="6">
         <v>3.9602811640483799</v>
       </c>
     </row>
@@ -1656,7 +1677,7 @@
       <c r="B16" s="3">
         <v>0.81178309379457403</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>1.5081776224438399</v>
       </c>
       <c r="D16" s="3">
@@ -1665,28 +1686,28 @@
       <c r="E16" s="3">
         <v>17087.008677396501</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="6">
         <v>23.882763470910401</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="8">
         <v>2.6776379386985298</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="6">
         <v>0.76474819528672699</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="6">
         <v>5.6977505681958203</v>
       </c>
       <c r="J16" s="3">
         <v>2.7187903298739098</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="6">
         <v>5.5016893003166096</v>
       </c>
       <c r="L16" s="3">
         <v>2.71730213438854</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="6">
         <v>5.6879319701893198</v>
       </c>
     </row>
@@ -1697,7 +1718,7 @@
       <c r="B17" s="3">
         <v>0.81023887071600498</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>1.5529600917223401</v>
       </c>
       <c r="D17" s="3">
@@ -1706,13 +1727,13 @@
       <c r="E17" s="3">
         <v>17094.771528965899</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="6">
         <v>26.576881172834799</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="8">
         <v>2.6536121401650901</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="6">
         <v>0.44686261917766801</v>
       </c>
       <c r="I17" s="3">
@@ -1738,7 +1759,7 @@
       <c r="B18" s="3">
         <v>0.82947726401692501</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="6">
         <v>0.99504668599568902</v>
       </c>
       <c r="D18" s="3">
@@ -1747,28 +1768,28 @@
       <c r="E18" s="3">
         <v>16948.186682127602</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="6">
         <v>25.9456640593177</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="6">
         <v>2.80105879843136</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="6">
         <v>1.60409240336543</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="6">
         <v>7.3442032943044797</v>
       </c>
       <c r="J18" s="3">
         <v>2.8014376525735099</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="6">
         <v>6.1485771471096697</v>
       </c>
       <c r="L18" s="3">
         <v>2.7940328529423399</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="6">
         <v>6.1938332117199799</v>
       </c>
     </row>
@@ -1788,28 +1809,28 @@
       <c r="E19" s="3">
         <v>16763.353765883301</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="6">
         <v>22.4549538498981</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="6">
         <v>2.8541188636188601</v>
       </c>
       <c r="H19" s="3">
         <v>0.18790831187446</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="6">
         <v>7.3279514359047004</v>
       </c>
       <c r="J19" s="3">
         <v>2.88335478555793</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="6">
         <v>7.2364263285789301</v>
       </c>
       <c r="L19" s="3">
         <v>2.87429873123294</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="6">
         <v>7.2352601392867104</v>
       </c>
     </row>
@@ -1829,28 +1850,28 @@
       <c r="E20" s="3">
         <v>16683.107644070598</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="6">
         <v>21.561758651609701</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="8">
         <v>2.6776832949004099</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="6">
         <v>0.34997349821687701</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="6">
         <v>3.6577896332886302</v>
       </c>
       <c r="J20" s="3">
         <v>2.7284144266008399</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="6">
         <v>3.7125376305260001</v>
       </c>
       <c r="L20" s="3">
         <v>2.71932450508826</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="6">
         <v>3.69464166019673</v>
       </c>
     </row>
@@ -1870,13 +1891,13 @@
       <c r="E21" s="3">
         <v>16570.689388725801</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="6">
         <v>22.5192260771355</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="8">
         <v>2.6219750529540198</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="6">
         <v>1.24324693822189</v>
       </c>
       <c r="I21" s="3">
@@ -1911,28 +1932,28 @@
       <c r="E22" s="3">
         <v>16584.8390412466</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="6">
         <v>21.056078215897401</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="6">
         <v>2.73694543088209</v>
       </c>
       <c r="H22" s="3">
         <v>0.107356986708257</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="6">
         <v>6.5909193505268897</v>
       </c>
       <c r="J22" s="3">
         <v>2.8002883825430498</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="6">
         <v>6.7261443144089297</v>
       </c>
       <c r="L22" s="3">
         <v>2.7912536855530798</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="6">
         <v>6.7228074676132197</v>
       </c>
     </row>
@@ -1955,25 +1976,25 @@
       <c r="F23" s="3">
         <v>19.326356185686102</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="6">
         <v>2.83400439525535</v>
       </c>
       <c r="H23" s="3">
         <v>2.1976346553790101E-2</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="6">
         <v>5.4475644370348997</v>
       </c>
       <c r="J23" s="3">
         <v>2.90874096511061</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="6">
         <v>5.7313388177705997</v>
       </c>
       <c r="L23" s="3">
         <v>2.8986359582944501</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="6">
         <v>5.7291779044941</v>
       </c>
     </row>
@@ -1996,25 +2017,25 @@
       <c r="F24" s="3">
         <v>19.3347859607244</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="6">
         <v>2.9101052324229402</v>
       </c>
       <c r="H24" s="3">
         <v>0.10761765899890301</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="6">
         <v>7.6164640344593302</v>
       </c>
       <c r="J24" s="3">
         <v>2.9757813651023599</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="6">
         <v>7.6328772796724698</v>
       </c>
       <c r="L24" s="3">
         <v>2.9649617936149202</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="6">
         <v>7.6224173093660497</v>
       </c>
     </row>
@@ -2037,25 +2058,25 @@
       <c r="F25" s="3">
         <v>19.358336163105399</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="6">
         <v>2.9218417689051899</v>
       </c>
       <c r="H25" s="3">
         <v>3.0874771516164499E-2</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="6">
         <v>8.3237038974954292</v>
       </c>
       <c r="J25" s="3">
         <v>2.9758104729757</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="6">
         <v>8.1244940027591106</v>
       </c>
       <c r="L25" s="3">
         <v>2.96571139885455</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="6">
         <v>8.1181770271800104</v>
       </c>
     </row>
@@ -2066,7 +2087,7 @@
       <c r="B26" s="3">
         <v>0.82939980231393495</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="6">
         <v>0.99729307538238698</v>
       </c>
       <c r="D26" s="3">
@@ -2078,25 +2099,25 @@
       <c r="F26" s="3">
         <v>19.585657986693299</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="6">
         <v>2.7673508914862501</v>
       </c>
       <c r="H26" s="3">
         <v>0.124264667788986</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="6">
         <v>4.9518259159901001</v>
       </c>
       <c r="J26" s="3">
         <v>2.81784136648578</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="6">
         <v>4.8921594355795399</v>
       </c>
       <c r="L26" s="3">
         <v>2.8097913124902201</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="6">
         <v>4.9191270595580203</v>
       </c>
     </row>
@@ -2107,7 +2128,7 @@
       <c r="B27" s="3">
         <v>0.83293294653686201</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="6">
         <v>0.89483189291750798</v>
       </c>
       <c r="D27" s="3">
@@ -2116,28 +2137,28 @@
       <c r="E27" s="3">
         <v>16902.4912324416</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="6">
         <v>21.7035224265761</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="8">
         <v>2.6418989353630402</v>
       </c>
       <c r="H27" s="3">
         <v>0.257650404453304</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="6">
         <v>2.56793869794592</v>
       </c>
       <c r="J27" s="3">
         <v>2.7021497050577099</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="6">
         <v>2.5535604187607199</v>
       </c>
       <c r="L27" s="3">
         <v>2.69531127024554</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="6">
         <v>2.56161384141528</v>
       </c>
     </row>
@@ -2148,7 +2169,7 @@
       <c r="B28" s="3">
         <v>0.81308997197774702</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="6">
         <v>1.47027815513185</v>
       </c>
       <c r="D28" s="3">
@@ -2157,28 +2178,28 @@
       <c r="E28" s="3">
         <v>17080.069513549901</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="6">
         <v>22.6865435515688</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="8">
         <v>2.6480701882257001</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="6">
         <v>1.02949133606497</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="6">
         <v>3.72323994391353</v>
       </c>
       <c r="J28" s="3">
         <v>2.7084219326053498</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="6">
         <v>4.2701814202665602</v>
       </c>
       <c r="L28" s="3">
         <v>2.7020301308735899</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="6">
         <v>4.3165683726108499</v>
       </c>
     </row>
@@ -2189,7 +2210,7 @@
       <c r="B29" s="3">
         <v>0.83537671009028802</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="6">
         <v>0.82396274986814699</v>
       </c>
       <c r="D29" s="3">
@@ -2198,28 +2219,28 @@
       <c r="E29" s="3">
         <v>16863.467016869199</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="6">
         <v>21.399236093755398</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="6">
         <v>2.7093770269301598</v>
       </c>
       <c r="H29" s="3">
         <v>0.20577204999406301</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="6">
         <v>4.2205151412920596</v>
       </c>
       <c r="J29" s="3">
         <v>2.7533421726906302</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="6">
         <v>3.5896450669826798</v>
       </c>
       <c r="L29" s="3">
         <v>2.7462829317992901</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="6">
         <v>3.6065518588689902</v>
       </c>
     </row>
@@ -2239,28 +2260,28 @@
       <c r="E30" s="3">
         <v>16658.821830370602</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="6">
         <v>20.785068284943701</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="8">
         <v>2.6642884193650098</v>
       </c>
       <c r="H30" s="3">
         <v>7.3070116615449598E-3</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="6">
         <v>5.5243469233047904</v>
       </c>
       <c r="J30" s="3">
         <v>2.7196384913172502</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="6">
         <v>5.6705329884316198</v>
       </c>
       <c r="L30" s="3">
         <v>2.71115104993889</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="6">
         <v>5.6814335924558703</v>
       </c>
     </row>
@@ -2271,7 +2292,7 @@
       <c r="B31" s="3">
         <v>0.82190422419929099</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="6">
         <v>1.2146648407070499</v>
       </c>
       <c r="D31" s="3">
@@ -2280,13 +2301,13 @@
       <c r="E31" s="3">
         <v>17021.959157043701</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="6">
         <v>21.2321579732779</v>
       </c>
       <c r="G31" s="3">
         <v>2.5988122346873701</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="6">
         <v>0.53806848698985199</v>
       </c>
       <c r="I31" s="3">
@@ -2321,28 +2342,28 @@
       <c r="E32" s="3">
         <v>16661.933606825001</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="6">
         <v>21.418719952474301</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="8">
         <v>2.6769017797691101</v>
       </c>
       <c r="H32" s="3">
         <v>9.0176693576257794E-2</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="6">
         <v>6.1200755249113303</v>
       </c>
       <c r="J32" s="3">
         <v>2.7244308753054298</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="6">
         <v>6.0357245963396498</v>
       </c>
       <c r="L32" s="3">
         <v>2.7153624337500202</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="6">
         <v>6.0421679007076001</v>
       </c>
     </row>

--- a/export_dataframe.xlsx
+++ b/export_dataframe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lion\Documents\GitHub\information-theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F41A93C-4B42-4757-B9CF-F6FC930A9EE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF08287-2A21-4B7F-BB55-7610B404D632}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>entropy</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Deleted item</t>
+  </si>
+  <si>
+    <t>&gt;2.66</t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,12 +495,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,7 +659,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,9 +680,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1191,7 @@
       <c r="F4" s="6">
         <v>22.966296287339599</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>2.6767258206234801</v>
       </c>
       <c r="H4" s="6">
@@ -1320,7 +1314,7 @@
       <c r="F7" s="6">
         <v>21.861284897554</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>2.6989209999587702</v>
       </c>
       <c r="H7" s="3">
@@ -1402,7 +1396,7 @@
       <c r="F9" s="6">
         <v>26.9561774354015</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>2.6798886060981602</v>
       </c>
       <c r="H9" s="6">
@@ -1443,7 +1437,7 @@
       <c r="F10" s="6">
         <v>25.364850801314901</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>2.61668180586208</v>
       </c>
       <c r="H10" s="6">
@@ -1484,7 +1478,7 @@
       <c r="F11" s="6">
         <v>20.4006976867635</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>2.6324518060588402</v>
       </c>
       <c r="H11" s="3">
@@ -1689,7 +1683,7 @@
       <c r="F16" s="6">
         <v>23.882763470910401</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="6">
         <v>2.6776379386985298</v>
       </c>
       <c r="H16" s="6">
@@ -1730,7 +1724,7 @@
       <c r="F17" s="6">
         <v>26.576881172834799</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>2.6536121401650901</v>
       </c>
       <c r="H17" s="6">
@@ -1853,7 +1847,7 @@
       <c r="F20" s="6">
         <v>21.561758651609701</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>2.6776832949004099</v>
       </c>
       <c r="H20" s="6">
@@ -1894,7 +1888,7 @@
       <c r="F21" s="6">
         <v>22.5192260771355</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>2.6219750529540198</v>
       </c>
       <c r="H21" s="6">
@@ -2140,7 +2134,7 @@
       <c r="F27" s="6">
         <v>21.7035224265761</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>2.6418989353630402</v>
       </c>
       <c r="H27" s="3">
@@ -2181,7 +2175,7 @@
       <c r="F28" s="6">
         <v>22.6865435515688</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>2.6480701882257001</v>
       </c>
       <c r="H28" s="6">
@@ -2263,7 +2257,7 @@
       <c r="F30" s="6">
         <v>20.785068284943701</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="6">
         <v>2.6642884193650098</v>
       </c>
       <c r="H30" s="3">
@@ -2304,7 +2298,7 @@
       <c r="F31" s="6">
         <v>21.2321579732779</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="7">
         <v>2.5988122346873701</v>
       </c>
       <c r="H31" s="6">
@@ -2345,7 +2339,7 @@
       <c r="F32" s="6">
         <v>21.418719952474301</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="6">
         <v>2.6769017797691101</v>
       </c>
       <c r="H32" s="3">
@@ -2365,6 +2359,11 @@
       </c>
       <c r="M32" s="6">
         <v>6.0421679007076001</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/export_dataframe.xlsx
+++ b/export_dataframe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lion\Documents\GitHub\information-theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF08287-2A21-4B7F-BB55-7610B404D632}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040D30E8-4D57-4563-8DDD-7FE634984DA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
